--- a/data/data for figure 5.xlsx
+++ b/data/data for figure 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanvanderzwaard/Projects/research/2022-CT-review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA49A31-67A6-464C-8AD3-93E2356EE4B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF2ACC8-D143-7849-B829-D1146BC651BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="2280" windowWidth="23260" windowHeight="12580" xr2:uid="{62240657-4D53-A240-BD06-E5418D567361}"/>
+    <workbookView xWindow="580" yWindow="3280" windowWidth="17960" windowHeight="16620" xr2:uid="{62240657-4D53-A240-BD06-E5418D567361}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
+  <si>
+    <t>Training status</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Endurance</t>
+  </si>
   <si>
     <t>Outcome</t>
   </si>
@@ -33,6 +45,9 @@
     <t>SMD</t>
   </si>
   <si>
+    <t>Untrained</t>
+  </si>
+  <si>
     <t>Power</t>
   </si>
   <si>
@@ -48,13 +63,7 @@
     <t>CI_upper</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Strength (lower-body)</t>
@@ -63,10 +72,16 @@
     <t>Strength (upper-body)</t>
   </si>
   <si>
+    <t>Trained</t>
+  </si>
+  <si>
     <t>P_subgroup</t>
   </si>
   <si>
     <t>P_comparison</t>
+  </si>
+  <si>
+    <t>Highly trained</t>
   </si>
 </sst>
 </file>
@@ -110,10 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -431,254 +445,698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAEE2E8-95A6-A742-B4D7-D1442D452FD4}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>-0.31</v>
+      </c>
+      <c r="E2">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="F2">
+        <v>-0.05</v>
+      </c>
+      <c r="G2">
+        <v>0.02</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>-0.31</v>
+      </c>
+      <c r="E3">
+        <v>-0.72</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>-0.08</v>
+      </c>
+      <c r="E5">
+        <v>-0.52</v>
+      </c>
+      <c r="F5">
+        <v>0.36</v>
+      </c>
+      <c r="G5">
+        <v>0.73</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>-0.3</v>
+      </c>
+      <c r="E6">
+        <v>-0.66</v>
+      </c>
+      <c r="F6">
+        <v>0.06</v>
+      </c>
+      <c r="G6">
+        <v>0.11</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>-0.45</v>
+      </c>
+      <c r="E8">
+        <v>-0.79</v>
+      </c>
+      <c r="F8">
+        <v>-0.11</v>
+      </c>
+      <c r="G8">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>-0.19</v>
+      </c>
+      <c r="E9">
+        <v>-0.65</v>
+      </c>
+      <c r="F9">
+        <v>0.27</v>
+      </c>
+      <c r="G9">
+        <v>0.42</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>0.15</v>
+      </c>
+      <c r="E11">
+        <v>-0.79</v>
+      </c>
+      <c r="F11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.75</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>0.51</v>
+      </c>
+      <c r="E12">
+        <v>-0.34</v>
+      </c>
+      <c r="F12">
+        <v>1.37</v>
+      </c>
+      <c r="G12">
+        <v>0.24</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>-0.09</v>
+      </c>
+      <c r="E14">
+        <v>-0.34</v>
+      </c>
+      <c r="F14">
+        <v>0.16</v>
+      </c>
+      <c r="G14">
+        <v>0.47</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>-0.08</v>
+      </c>
+      <c r="E15">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="F15">
+        <v>0.4</v>
+      </c>
+      <c r="G15">
+        <v>0.76</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>-0.49</v>
+      </c>
+      <c r="E17">
+        <v>-0.9</v>
+      </c>
+      <c r="F17">
+        <v>-0.08</v>
+      </c>
+      <c r="G17">
+        <v>0.02</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>-0.34</v>
+      </c>
+      <c r="E18">
+        <v>-0.62</v>
+      </c>
+      <c r="F18">
+        <v>-0.05</v>
+      </c>
+      <c r="G18">
+        <v>0.02</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>-0.04</v>
+      </c>
+      <c r="E20">
+        <v>-0.48</v>
+      </c>
+      <c r="F20">
+        <v>0.4</v>
+      </c>
+      <c r="G20">
+        <v>0.86</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>-0.23</v>
+      </c>
+      <c r="E21">
+        <v>-0.59</v>
+      </c>
+      <c r="F21">
+        <v>0.12</v>
+      </c>
+      <c r="G21">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>-0.31</v>
+      </c>
+      <c r="E23">
+        <v>-0.68</v>
+      </c>
+      <c r="F23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.11</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>-0.35</v>
+      </c>
+      <c r="E24">
+        <v>-0.67</v>
+      </c>
+      <c r="F24">
+        <v>-0.03</v>
+      </c>
+      <c r="G24">
+        <v>0.03</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>-0.43</v>
-      </c>
-      <c r="D2">
-        <v>-0.64</v>
-      </c>
-      <c r="E2">
-        <v>-0.22</v>
-      </c>
-      <c r="F2">
-        <v>1E-4</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D26">
+        <v>0.01</v>
+      </c>
+      <c r="E26">
+        <v>-0.7</v>
+      </c>
+      <c r="F26">
+        <v>0.72</v>
+      </c>
+      <c r="G26">
+        <v>0.98</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>0.16</v>
+      </c>
+      <c r="E27">
+        <v>-0.68</v>
+      </c>
+      <c r="F27">
+        <v>0.99</v>
+      </c>
+      <c r="G27">
+        <v>0.71</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
+      <c r="D29">
+        <v>-0.35</v>
+      </c>
+      <c r="E29">
+        <v>-0.7</v>
+      </c>
+      <c r="F29">
+        <v>-0.01</v>
+      </c>
+      <c r="G29">
+        <v>0.05</v>
+      </c>
+      <c r="H29">
+        <v>0.04</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>0.18</v>
+      </c>
+      <c r="E30">
+        <v>-0.02</v>
+      </c>
+      <c r="F30">
+        <v>0.38</v>
+      </c>
+      <c r="G30">
         <v>0.08</v>
       </c>
-      <c r="D3">
-        <v>-0.34</v>
-      </c>
-      <c r="E3">
-        <v>0.49</v>
-      </c>
-      <c r="F3">
-        <v>0.72</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>-0.12</v>
-      </c>
-      <c r="D4">
-        <v>-0.4</v>
-      </c>
-      <c r="E4">
-        <v>0.16</v>
-      </c>
-      <c r="F4">
-        <v>0.39</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="H30">
+        <v>0.04</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>-0.38</v>
-      </c>
-      <c r="D5">
-        <v>-1.53</v>
-      </c>
-      <c r="E5">
-        <v>0.77</v>
-      </c>
-      <c r="F5">
-        <v>0.51</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>-0.27</v>
-      </c>
-      <c r="D6">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="E6">
+      <c r="D31">
         <v>0.01</v>
       </c>
-      <c r="F6">
-        <v>0.05</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>-0.52</v>
-      </c>
-      <c r="D7">
-        <v>-0.98</v>
-      </c>
-      <c r="E7">
-        <v>-0.06</v>
-      </c>
-      <c r="F7">
-        <v>0.03</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>0.24</v>
-      </c>
-      <c r="D8">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="E8">
-        <v>0.77</v>
-      </c>
-      <c r="F8">
-        <v>0.37</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
+      <c r="E31">
+        <v>-0.32</v>
+      </c>
+      <c r="F31">
+        <v>0.34</v>
+      </c>
+      <c r="G31">
+        <v>0.94</v>
+      </c>
+      <c r="H31">
         <v>0.04</v>
       </c>
-      <c r="D10">
-        <v>-0.17</v>
-      </c>
-      <c r="E10">
-        <v>0.24</v>
-      </c>
-      <c r="F10">
-        <v>0.74</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="D11">
-        <v>-0.65</v>
-      </c>
-      <c r="E11">
-        <v>0.08</v>
-      </c>
-      <c r="F11">
-        <v>0.12</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.13</v>
-      </c>
+      <c r="I31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
